--- a/Csv/Skill/define.xlsx
+++ b/Csv/Skill/define.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="define_动作配置" sheetId="1" r:id="rId1"/>
-    <sheet name="define_动作行为" sheetId="2" r:id="rId2"/>
-    <sheet name="define_配置枚举" sheetId="3" r:id="rId3"/>
+    <sheet name="1define_动作配置" sheetId="1" r:id="rId1"/>
+    <sheet name="1define_动作行为" sheetId="2" r:id="rId2"/>
+    <sheet name="1define_配置枚举" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2558,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -3649,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
